--- a/NPabloHours.xlsx
+++ b/NPabloHours.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>Date</t>
   </si>
@@ -36,6 +36,9 @@
   </si>
   <si>
     <t>Weekly Meeting</t>
+  </si>
+  <si>
+    <t>Intro to Git DataCamp Course</t>
   </si>
 </sst>
 </file>
@@ -388,13 +391,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FBFB9AD-4525-4C81-BC71-3519B25C6C12}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="40.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -416,6 +423,17 @@
       </c>
       <c r="C2" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>43115</v>
+      </c>
+      <c r="B3">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/NPabloHours.xlsx
+++ b/NPabloHours.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Date</t>
   </si>
@@ -39,6 +39,18 @@
   </si>
   <si>
     <t>Intro to Git DataCamp Course</t>
+  </si>
+  <si>
+    <t>DataCamp Writing Functions in R Course</t>
+  </si>
+  <si>
+    <t>Researching good programming practices, taking notes on ISCAM functions</t>
+  </si>
+  <si>
+    <t>Created basic, first-try R package</t>
+  </si>
+  <si>
+    <t>Put all existing ISCAM functions into a package</t>
   </si>
 </sst>
 </file>
@@ -391,10 +403,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FBFB9AD-4525-4C81-BC71-3519B25C6C12}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -436,6 +448,50 @@
         <v>4</v>
       </c>
     </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>43121</v>
+      </c>
+      <c r="B4">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>43122</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>43128</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>43136</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/NPabloHours.xlsx
+++ b/NPabloHours.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Date</t>
   </si>
@@ -51,6 +51,12 @@
   </si>
   <si>
     <t>Put all existing ISCAM functions into a package</t>
+  </si>
+  <si>
+    <t>Start revising ISCAM functions with ggplot</t>
+  </si>
+  <si>
+    <t>Revise boxplot, dotplot, binomprob functions</t>
   </si>
 </sst>
 </file>
@@ -403,10 +409,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FBFB9AD-4525-4C81-BC71-3519B25C6C12}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -492,6 +498,28 @@
         <v>8</v>
       </c>
     </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>43143</v>
+      </c>
+      <c r="B8">
+        <v>6</v>
+      </c>
+      <c r="C8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>43150</v>
+      </c>
+      <c r="B9">
+        <v>6</v>
+      </c>
+      <c r="C9" t="s">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
